--- a/Class Work/4th Week_Pandas/2nd Session/02-Stu_GoodMovies-Loc/Unsolved/output/movieWatchlist.xlsx
+++ b/Class Work/4th Week_Pandas/2nd Session/02-Stu_GoodMovies-Loc/Unsolved/output/movieWatchlist.xlsx
@@ -1,37 +1,291 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>IMDB</t>
+  </si>
+  <si>
+    <t>IMDB_user_vote_count</t>
+  </si>
+  <si>
+    <t>Do You Believe? (2015)</t>
+  </si>
+  <si>
+    <t>Hot Tub Time Machine 2 (2015)</t>
+  </si>
+  <si>
+    <t>Irrational Man (2015)</t>
+  </si>
+  <si>
+    <t>Top Five (2014)</t>
+  </si>
+  <si>
+    <t>Shaun the Sheep Movie (2015)</t>
+  </si>
+  <si>
+    <t>Love &amp; Mercy (2015)</t>
+  </si>
+  <si>
+    <t>Far From The Madding Crowd (2015)</t>
+  </si>
+  <si>
+    <t>Black Sea (2015)</t>
+  </si>
+  <si>
+    <t>Pixels (2015)</t>
+  </si>
+  <si>
+    <t>McFarland, USA (2015)</t>
+  </si>
+  <si>
+    <t>The End of the Tour (2015)</t>
+  </si>
+  <si>
+    <t>Red Army (2015)</t>
+  </si>
+  <si>
+    <t>When Marnie Was There (2015)</t>
+  </si>
+  <si>
+    <t>The Hunting Ground (2015)</t>
+  </si>
+  <si>
+    <t>The Boy Next Door (2015)</t>
+  </si>
+  <si>
+    <t>Aloha (2015)</t>
+  </si>
+  <si>
+    <t>5 Flights Up (2015)</t>
+  </si>
+  <si>
+    <t>Welcome to Me (2015)</t>
+  </si>
+  <si>
+    <t>Saint Laurent (2015)</t>
+  </si>
+  <si>
+    <t>I'll See You In My Dreams (2015)</t>
+  </si>
+  <si>
+    <t>Timbuktu (2015)</t>
+  </si>
+  <si>
+    <t>The Diary of a Teenage Girl (2015)</t>
+  </si>
+  <si>
+    <t>Annie (2014)</t>
+  </si>
+  <si>
+    <t>Hot Pursuit (2015)</t>
+  </si>
+  <si>
+    <t>Black or White (2015)</t>
+  </si>
+  <si>
+    <t>Ricki and the Flash (2015)</t>
+  </si>
+  <si>
+    <t>Unfinished Business (2015)</t>
+  </si>
+  <si>
+    <t>American Ultra (2015)</t>
+  </si>
+  <si>
+    <t>True Story (2015)</t>
+  </si>
+  <si>
+    <t>Child 44 (2015)</t>
+  </si>
+  <si>
+    <t>Dark Places (2015)</t>
+  </si>
+  <si>
+    <t>The Gift (2015)</t>
+  </si>
+  <si>
+    <t>Monkey Kingdom (2015)</t>
+  </si>
+  <si>
+    <t>Mr. Turner (2014)</t>
+  </si>
+  <si>
+    <t>Seymour: An Introduction (2015)</t>
+  </si>
+  <si>
+    <t>The Wrecking Crew (2015)</t>
+  </si>
+  <si>
+    <t>Straight Outta Compton (2015)</t>
+  </si>
+  <si>
+    <t>Vacation (2015)</t>
+  </si>
+  <si>
+    <t>Paper Towns (2015)</t>
+  </si>
+  <si>
+    <t>Self/less (2015)</t>
+  </si>
+  <si>
+    <t>Sinister 2 (2015)</t>
+  </si>
+  <si>
+    <t>Little Boy (2015)</t>
+  </si>
+  <si>
+    <t>Me and Earl and The Dying Girl (2015)</t>
+  </si>
+  <si>
+    <t>Maggie (2015)</t>
+  </si>
+  <si>
+    <t>Dope (2015)</t>
+  </si>
+  <si>
+    <t>The Overnight (2015)</t>
+  </si>
+  <si>
+    <t>The Salt of the Earth (2015)</t>
+  </si>
+  <si>
+    <t>Song of the Sea (2014)</t>
+  </si>
+  <si>
+    <t>The Gallows (2015)</t>
+  </si>
+  <si>
+    <t>The Second Best Exotic Marigold Hotel (2015)</t>
+  </si>
+  <si>
+    <t>Strange Magic (2015)</t>
+  </si>
+  <si>
+    <t>The Gunman (2015)</t>
+  </si>
+  <si>
+    <t>Hitman: Agent 47 (2015)</t>
+  </si>
+  <si>
+    <t>Cake (2015)</t>
+  </si>
+  <si>
+    <t>The Vatican Tapes (2015)</t>
+  </si>
+  <si>
+    <t>A Little Chaos (2015)</t>
+  </si>
+  <si>
+    <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared (2015)</t>
+  </si>
+  <si>
+    <t>Escobar: Paradise Lost (2015)</t>
+  </si>
+  <si>
+    <t>While We're Young (2015)</t>
+  </si>
+  <si>
+    <t>Clouds of Sils Maria (2015)</t>
+  </si>
+  <si>
+    <t>Testament of Youth (2015)</t>
+  </si>
+  <si>
+    <t>Infinitely Polar Bear (2015)</t>
+  </si>
+  <si>
+    <t>Phoenix (2015)</t>
+  </si>
+  <si>
+    <t>The Wolfpack (2015)</t>
+  </si>
+  <si>
+    <t>The Stanford Prison Experiment (2015)</t>
+  </si>
+  <si>
+    <t>Tangerine (2015)</t>
+  </si>
+  <si>
+    <t>Magic Mike XXL (2015)</t>
+  </si>
+  <si>
+    <t>Woman in Gold (2015)</t>
+  </si>
+  <si>
+    <t>The Last Five Years (2015)</t>
+  </si>
+  <si>
+    <t>Amy (2015)</t>
+  </si>
+  <si>
+    <t>Max (2015)</t>
+  </si>
+  <si>
+    <t>Paul Blart: Mall Cop 2 (2015)</t>
+  </si>
+  <si>
+    <t>The Lazarus Effect (2015)</t>
+  </si>
+  <si>
+    <t>The Woman In Black 2 Angel of Death (2015)</t>
+  </si>
+  <si>
+    <t>Danny Collins (2015)</t>
+  </si>
+  <si>
+    <t>Serena (2015)</t>
+  </si>
+  <si>
+    <t>Mr. Holmes (2015)</t>
+  </si>
+  <si>
+    <t>Gett: The Trial of Viviane Amsalem (2015)</t>
+  </si>
+  <si>
+    <t>Kumiko, The Treasure Hunter (2015)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +300,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,440 +616,894 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FILM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>IMDB</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IMDB_user_vote_count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Shaun the Sheep Movie (2015)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5.4</v>
+      </c>
+      <c r="C2">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5.1</v>
+      </c>
+      <c r="C3">
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>6.9</v>
+      </c>
+      <c r="C4">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>16876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>7.4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6">
         <v>12227</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Love &amp; Mercy (2015)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>7.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C7">
         <v>5367</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Far From The Madding Crowd (2015)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>7.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C8">
         <v>12129</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>McFarland, USA (2015)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>6.4</v>
+      </c>
+      <c r="C9">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>5.6</v>
+      </c>
+      <c r="C10">
+        <v>19521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
         <v>7.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11">
         <v>13769</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The End of the Tour (2015)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>7.9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12">
         <v>1320</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Red Army (2015)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>7.7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13">
         <v>2275</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>When Marnie Was There (2015)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>7.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14">
         <v>4160</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The Hunting Ground (2015)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
         <v>7.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15">
         <v>1196</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Timbuktu (2015)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4.6</v>
+      </c>
+      <c r="C16">
+        <v>19658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>5.5</v>
+      </c>
+      <c r="C17">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>6.1</v>
+      </c>
+      <c r="C18">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>5.9</v>
+      </c>
+      <c r="C19">
+        <v>8301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>6.3</v>
+      </c>
+      <c r="C20">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>6.9</v>
+      </c>
+      <c r="C21">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
         <v>7.2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C22">
         <v>6246</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Gift (2015)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>5.2</v>
+      </c>
+      <c r="C24">
+        <v>19222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>4.9</v>
+      </c>
+      <c r="C25">
+        <v>17061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>6.6</v>
+      </c>
+      <c r="C26">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>6.2</v>
+      </c>
+      <c r="C27">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>5.4</v>
+      </c>
+      <c r="C28">
+        <v>14346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>6.5</v>
+      </c>
+      <c r="C29">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>6.3</v>
+      </c>
+      <c r="C30">
+        <v>16069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>6.4</v>
+      </c>
+      <c r="C31">
+        <v>19220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>6.3</v>
+      </c>
+      <c r="C32">
+        <v>9856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
         <v>7.6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C33">
         <v>10891</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Monkey Kingdom (2015)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
         <v>7.3</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C34">
         <v>883</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Seymour: An Introduction (2015)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>6.9</v>
+      </c>
+      <c r="C35">
+        <v>13296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
         <v>7.7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C36">
         <v>243</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>The Wrecking Crew (2015)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
         <v>7.8</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C37">
         <v>732</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Straight Outta Compton (2015)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
         <v>8.4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C38">
         <v>15982</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Little Boy (2015)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>6.3</v>
+      </c>
+      <c r="C39">
+        <v>8179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>6.9</v>
+      </c>
+      <c r="C40">
+        <v>14156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>6.6</v>
+      </c>
+      <c r="C41">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+      <c r="C42">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
         <v>7.4</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C43">
         <v>5927</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Me and Earl and The Dying Girl (2015)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
         <v>8.199999999999999</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C44">
         <v>5269</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Dope (2015)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>5.6</v>
+      </c>
+      <c r="C45">
+        <v>18986</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
         <v>7.5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C46">
         <v>4911</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>The Salt of the Earth (2015)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>6.9</v>
+      </c>
+      <c r="C47">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
         <v>8.4</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C48">
         <v>6605</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Song of the Sea (2014)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
         <v>8.199999999999999</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C49">
         <v>14067</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared (2015)</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>4.4</v>
+      </c>
+      <c r="C50">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>6.6</v>
+      </c>
+      <c r="C51">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>5.7</v>
+      </c>
+      <c r="C52">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>5.8</v>
+      </c>
+      <c r="C53">
+        <v>16663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>5.9</v>
+      </c>
+      <c r="C54">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>6.5</v>
+      </c>
+      <c r="C55">
+        <v>19627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>4.6</v>
+      </c>
+      <c r="C56">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>6.4</v>
+      </c>
+      <c r="C57">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
         <v>7.1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C58">
         <v>17237</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Testament of Youth (2015)</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>6.6</v>
+      </c>
+      <c r="C59">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>6.4</v>
+      </c>
+      <c r="C60">
+        <v>17647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>6.8</v>
+      </c>
+      <c r="C61">
+        <v>11392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
         <v>7.3</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C62">
         <v>5495</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Infinitely Polar Bear (2015)</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
         <v>7.2</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C63">
         <v>1062</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Phoenix (2015)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
         <v>7.2</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C64">
         <v>3687</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Wolfpack (2015)</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
         <v>7.1</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C65">
         <v>1488</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Stanford Prison Experiment (2015)</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
         <v>7.1</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C66">
         <v>950</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Tangerine (2015)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
         <v>7.4</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C67">
         <v>696</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Woman in Gold (2015)</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>6.3</v>
+      </c>
+      <c r="C68">
+        <v>11937</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
         <v>7.4</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C69">
         <v>17957</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Amy (2015)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
         <v>8</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C71">
         <v>5630</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Danny Collins (2015)</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>4.3</v>
+      </c>
+      <c r="C73">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>5.2</v>
+      </c>
+      <c r="C74">
+        <v>17691</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>4.9</v>
+      </c>
+      <c r="C75">
+        <v>14873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
         <v>7.1</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C76">
         <v>11206</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mr. Holmes (2015)</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>5.4</v>
+      </c>
+      <c r="C77">
+        <v>12165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
         <v>7.4</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C78">
         <v>7367</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Gett: The Trial of Viviane Amsalem (2015)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
         <v>7.8</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C79">
         <v>1955</v>
       </c>
     </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>6.7</v>
+      </c>
+      <c r="C80">
+        <v>5289</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>